--- a/src/AppBundle/tmp/availability_report.xlsx
+++ b/src/AppBundle/tmp/availability_report.xlsx
@@ -117,7 +117,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="76">
   <si>
     <t>Availability Report</t>
   </si>
@@ -240,6 +240,9 @@
   </si>
   <si>
     <t>2015-11-16</t>
+  </si>
+  <si>
+    <t>2015-11-17</t>
   </si>
   <si>
     <t>AML_Main_Site Notifications</t>
@@ -680,7 +683,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:W19"/>
+  <dimension ref="A1:W20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -1919,6 +1922,77 @@
         <v>24</v>
       </c>
       <c r="W19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F20" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20" t="s">
+        <v>24</v>
+      </c>
+      <c r="H20" t="s">
+        <v>24</v>
+      </c>
+      <c r="I20" t="s">
+        <v>24</v>
+      </c>
+      <c r="J20" t="s">
+        <v>24</v>
+      </c>
+      <c r="K20" t="s">
+        <v>24</v>
+      </c>
+      <c r="L20" t="s">
+        <v>24</v>
+      </c>
+      <c r="M20" t="s">
+        <v>24</v>
+      </c>
+      <c r="N20" t="s">
+        <v>24</v>
+      </c>
+      <c r="O20" t="s">
+        <v>24</v>
+      </c>
+      <c r="P20" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>24</v>
+      </c>
+      <c r="R20" t="s">
+        <v>24</v>
+      </c>
+      <c r="S20" t="s">
+        <v>24</v>
+      </c>
+      <c r="T20" t="s">
+        <v>24</v>
+      </c>
+      <c r="U20" t="s">
+        <v>24</v>
+      </c>
+      <c r="V20" t="s">
+        <v>24</v>
+      </c>
+      <c r="W20" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1973,194 +2047,194 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C15" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C16" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:17">
       <c r="A17" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C17" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:17">
       <c r="A18" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:17">
       <c r="A19" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C19" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/src/AppBundle/tmp/availability_report.xlsx
+++ b/src/AppBundle/tmp/availability_report.xlsx
@@ -8,7 +8,18 @@
   </bookViews>
   <sheets>
     <sheet name="Availability" sheetId="1" r:id="rId4"/>
-    <sheet name="AML_Main_Site_Detail" sheetId="2" r:id="rId5"/>
+    <sheet name="Ping_to_8.8.8.8_Detail" sheetId="2" r:id="rId5"/>
+    <sheet name="AML_Main_Site_Detail" sheetId="3" r:id="rId6"/>
+    <sheet name="230_Server_-_Alive_Detail" sheetId="4" r:id="rId7"/>
+    <sheet name="231_Server_-_Alive_Detail" sheetId="5" r:id="rId8"/>
+    <sheet name="231_Server_-_Cpu_Detail" sheetId="6" r:id="rId9"/>
+    <sheet name="231_Server_-_Memory_Detail" sheetId="7" r:id="rId10"/>
+    <sheet name="231_Server_-_C_Drive_Detail" sheetId="8" r:id="rId11"/>
+    <sheet name="232_Server_-_Alive_Detail" sheetId="9" r:id="rId12"/>
+    <sheet name="232_Server_-_CPU_Detail" sheetId="10" r:id="rId13"/>
+    <sheet name="232_Server_-_Memory_Detail" sheetId="11" r:id="rId14"/>
+    <sheet name="232_Server_-_C_Drive_Detail" sheetId="12" r:id="rId15"/>
+    <sheet name="232_Server_-_D_Drive_Detail" sheetId="13" r:id="rId16"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
@@ -21,6 +32,26 @@
     <author>Author</author>
   </authors>
   <commentList>
+    <comment ref="B21" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <rFont val="Calibri"/>
+            <b val="false"/>
+            <i val="false"/>
+            <strike val="false"/>
+            <color rgb="FF000000"/>
+            <sz val="11"/>
+            <u val="none"/>
+          </rPr>
+          <t xml:space="preserve">2015-11-18 13:21:55 - Ping to 8.8.8.8: PING WARNING - Packet loss = 0%, RTA = 742.49 ms
+2015-11-18 13:25:54 - Ping to 8.8.8.8: PING OK - Packet loss = 0%, RTA = 317.72 ms
+2015-11-18 13:32:25 - Ping to 8.8.8.8: PING WARNING - Packet loss = 0%, RTA = 615.85 ms
+2015-11-18 13:35:51 - Ping to 8.8.8.8: PING WARNING - Packet loss = 0%, RTA = 613.88 ms
+2015-11-18 13:37:54 - Ping to 8.8.8.8: PING OK - Packet loss = 0%, RTA = 33.93 ms</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="C4" authorId="0">
       <text>
         <r>
@@ -112,12 +143,512 @@
         </r>
       </text>
     </comment>
+    <comment ref="C25" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <rFont val="Calibri"/>
+            <b val="false"/>
+            <i val="false"/>
+            <strike val="false"/>
+            <color rgb="FF000000"/>
+            <sz val="11"/>
+            <u val="none"/>
+          </rPr>
+          <t xml:space="preserve">2015-11-22 04:15:20 - AML Main Site: PING CRITICAL - Packet loss = 58%, RTA = 9490.41 ms
+2015-11-22 04:15:43 - AML Main Site: PING OK - Packet loss = 0%, RTA = 5.24 ms
+2015-11-22 06:31:52 - AML Main Site: PING CRITICAL - Packet loss = 64%, RTA = 11195.06 ms
+2015-11-22 06:32:13 - AML Main Site: PING OK - Packet loss = 0%, RTA = 97.45 ms</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E24" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <rFont val="Calibri"/>
+            <b val="false"/>
+            <i val="false"/>
+            <strike val="false"/>
+            <color rgb="FF000000"/>
+            <sz val="11"/>
+            <u val="none"/>
+          </rPr>
+          <t xml:space="preserve">2015-11-21 15:44:42 - 230 Server - Alive: CRITICAL - Host Unreachable (192.168.0.230)
+2015-11-21 15:54:24 - 230 Server - Alive: CRITICAL - Host Unreachable (192.168.0.230)
+2015-11-21 16:01:07 - 230 Server - Alive: PING WARNING - Packet loss = 82%, RTA = 0.57 ms
+2015-11-21 16:01:43 - 230 Server - Alive: PING OK - Packet loss = 0%, RTA = 0.89 ms</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E25" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <rFont val="Calibri"/>
+            <b val="false"/>
+            <i val="false"/>
+            <strike val="false"/>
+            <color rgb="FF000000"/>
+            <sz val="11"/>
+            <u val="none"/>
+          </rPr>
+          <t xml:space="preserve">2015-11-22 02:04:11 - 230 Server - Alive: CRITICAL - Host Unreachable (192.168.0.230)
+2015-11-22 02:25:49 - 230 Server - Alive: CRITICAL - Host Unreachable (192.168.0.230)
+2015-11-22 02:55:53 - 230 Server - Alive: CRITICAL - Host Unreachable (192.168.0.230)
+2015-11-22 03:25:57 - 230 Server - Alive: CRITICAL - Host Unreachable (192.168.0.230)
+2015-11-22 03:44:28 - 230 Server - Alive: CRITICAL - Host Unreachable (192.168.0.230)
+2015-11-22 15:03:12 - 230 Server - Alive: PING OK - Packet loss = 0%, RTA = 0.41 ms
+2015-11-22 19:00:30 - 230 Server - Alive: CRITICAL - Host Unreachable (192.168.0.230)
+2015-11-22 19:01:17 - 230 Server - Alive: PING OK - Packet loss = 50%, RTA = 0.86 ms</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F24" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <rFont val="Calibri"/>
+            <b val="false"/>
+            <i val="false"/>
+            <strike val="false"/>
+            <color rgb="FF000000"/>
+            <sz val="11"/>
+            <u val="none"/>
+          </rPr>
+          <t xml:space="preserve">2015-11-21 15:43:08 - 231 Server - Alive: CRITICAL - Host Unreachable (192.168.0.231)
+2015-11-21 15:49:34 - 231 Server - Alive: CRITICAL - Host Unreachable (192.168.0.231)
+2015-11-21 16:13:35 - 231 Server - Alive: PING WARNING - Packet loss = 83%, RTA = 1.58 ms
+2015-11-21 16:14:10 - 231 Server - Alive: PING OK - Packet loss = 0%, RTA = 9.46 ms</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F25" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <rFont val="Calibri"/>
+            <b val="false"/>
+            <i val="false"/>
+            <strike val="false"/>
+            <color rgb="FF000000"/>
+            <sz val="11"/>
+            <u val="none"/>
+          </rPr>
+          <t xml:space="preserve">2015-11-22 02:04:43 - 231 Server - Alive: CRITICAL - Host Unreachable (192.168.0.231)
+2015-11-22 02:20:59 - 231 Server - Alive: CRITICAL - Host Unreachable (192.168.0.231)
+2015-11-22 02:51:03 - 231 Server - Alive: CRITICAL - Host Unreachable (192.168.0.231)
+2015-11-22 03:21:07 - 231 Server - Alive: CRITICAL - Host Unreachable (192.168.0.231)
+2015-11-22 03:44:32 - 231 Server - Alive: CRITICAL - Host Unreachable (192.168.0.231)
+2015-11-22 15:04:44 - 231 Server - Alive: PING OK - Packet loss = 0%, RTA = 1.50 ms
+2015-11-22 18:58:43 - 231 Server - Alive: CRITICAL - Host Unreachable (192.168.0.231)
+2015-11-22 19:02:44 - 231 Server - Alive: PING OK - Packet loss = 0%, RTA = 0.58 ms</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G24" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <rFont val="Calibri"/>
+            <b val="false"/>
+            <i val="false"/>
+            <strike val="false"/>
+            <color rgb="FF000000"/>
+            <sz val="11"/>
+            <u val="none"/>
+          </rPr>
+          <t xml:space="preserve">2015-11-21 16:24:18 - 231 Server - Cpu: CRITICAL - Socket timeout after 10 seconds
+2015-11-21 16:54:22 - 231 Server - Cpu: CRITICAL - Socket timeout after 10 seconds
+2015-11-21 17:24:27 - 231 Server - Cpu: CRITICAL - Socket timeout after 10 seconds
+2015-11-21 17:54:31 - 231 Server - Cpu: CRITICAL - Socket timeout after 10 seconds
+2015-11-21 18:24:35 - 231 Server - Cpu: CRITICAL - Socket timeout after 10 seconds
+2015-11-21 18:54:39 - 231 Server - Cpu: CRITICAL - Socket timeout after 10 seconds
+2015-11-21 19:24:44 - 231 Server - Cpu: CRITICAL - Socket timeout after 10 seconds
+2015-11-21 19:54:48 - 231 Server - Cpu: CRITICAL - Socket timeout after 10 seconds
+2015-11-21 20:24:53 - 231 Server - Cpu: CRITICAL - Socket timeout after 10 seconds
+2015-11-21 20:54:58 - 231 Server - Cpu: CRITICAL - Socket timeout after 10 seconds
+2015-11-21 21:25:02 - 231 Server - Cpu: CRITICAL - Socket timeout after 10 seconds
+2015-11-21 21:55:07 - 231 Server - Cpu: CRITICAL - Socket timeout after 10 seconds
+2015-11-21 22:25:11 - 231 Server - Cpu: CRITICAL - Socket timeout after 10 seconds
+2015-11-21 22:55:16 - 231 Server - Cpu: CRITICAL - Socket timeout after 10 seconds
+2015-11-21 23:25:19 - 231 Server - Cpu: CRITICAL - Socket timeout after 10 seconds
+2015-11-21 23:55:20 - 231 Server - Cpu: CRITICAL - Socket timeout after 10 seconds</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G25" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <rFont val="Calibri"/>
+            <b val="false"/>
+            <i val="false"/>
+            <strike val="false"/>
+            <color rgb="FF000000"/>
+            <sz val="11"/>
+            <u val="none"/>
+          </rPr>
+          <t xml:space="preserve">2015-11-22 00:01:53 - 231 Server - Cpu: CRITICAL - Socket timeout after 10 seconds
+2015-11-22 00:16:20 - 231 Server - Cpu: CPU Load 0% (60 min average) 
+2015-11-22 15:04:53 - 231 Server - Cpu: CPU Load 1% (60 min average) 
+2015-11-22 15:21:56 - 231 Server - Cpu: CRITICAL - Socket timeout after 10 seconds
+2015-11-22 15:27:27 - 231 Server - Cpu: CRITICAL - Socket timeout after 10 seconds
+2015-11-22 15:57:32 - 231 Server - Cpu: CRITICAL - Socket timeout after 10 seconds
+2015-11-22 16:27:35 - 231 Server - Cpu: CRITICAL - Socket timeout after 10 seconds
+2015-11-22 16:57:40 - 231 Server - Cpu: CRITICAL - Socket timeout after 10 seconds
+2015-11-22 16:58:33 - 231 Server - Cpu: CRITICAL - Socket timeout after 10 seconds
+2015-11-22 19:03:46 - 231 Server - Cpu: CPU Load 9% (60 min average) </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H24" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <rFont val="Calibri"/>
+            <b val="false"/>
+            <i val="false"/>
+            <strike val="false"/>
+            <color rgb="FF000000"/>
+            <sz val="11"/>
+            <u val="none"/>
+          </rPr>
+          <t xml:space="preserve">2015-11-21 16:24:18 - 231 Server - Memory: CRITICAL - Socket timeout after 10 seconds
+2015-11-21 16:54:22 - 231 Server - Memory: CRITICAL - Socket timeout after 10 seconds
+2015-11-21 17:24:27 - 231 Server - Memory: CRITICAL - Socket timeout after 10 seconds
+2015-11-21 17:54:31 - 231 Server - Memory: CRITICAL - Socket timeout after 10 seconds
+2015-11-21 18:24:35 - 231 Server - Memory: CRITICAL - Socket timeout after 10 seconds
+2015-11-21 18:54:39 - 231 Server - Memory: CRITICAL - Socket timeout after 10 seconds
+2015-11-21 19:24:44 - 231 Server - Memory: CRITICAL - Socket timeout after 10 seconds
+2015-11-21 19:54:48 - 231 Server - Memory: CRITICAL - Socket timeout after 10 seconds
+2015-11-21 20:24:53 - 231 Server - Memory: CRITICAL - Socket timeout after 10 seconds
+2015-11-21 20:54:58 - 231 Server - Memory: CRITICAL - Socket timeout after 10 seconds
+2015-11-21 21:25:02 - 231 Server - Memory: CRITICAL - Socket timeout after 10 seconds
+2015-11-21 21:55:07 - 231 Server - Memory: CRITICAL - Socket timeout after 10 seconds
+2015-11-21 22:25:11 - 231 Server - Memory: CRITICAL - Socket timeout after 10 seconds
+2015-11-21 22:55:16 - 231 Server - Memory: CRITICAL - Socket timeout after 10 seconds
+2015-11-21 23:25:19 - 231 Server - Memory: CRITICAL - Socket timeout after 10 seconds
+2015-11-21 23:55:20 - 231 Server - Memory: CRITICAL - Socket timeout after 10 seconds</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H25" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <rFont val="Calibri"/>
+            <b val="false"/>
+            <i val="false"/>
+            <strike val="false"/>
+            <color rgb="FF000000"/>
+            <sz val="11"/>
+            <u val="none"/>
+          </rPr>
+          <t xml:space="preserve">2015-11-22 00:01:38 - 231 Server - Memory: CRITICAL - Socket timeout after 10 seconds
+2015-11-22 00:16:20 - 231 Server - Memory: Memory usage: total:9471.63 Mb - used: 1033.87 Mb (11%) - free: 8437.76 Mb (89%) 
+2015-11-22 15:04:53 - 231 Server - Memory: Memory usage: total:9471.63 Mb - used: 604.99 Mb (6%) - free: 8866.64 Mb (94%) 
+2015-11-22 15:21:59 - 231 Server - Memory: CRITICAL - Socket timeout after 10 seconds
+2015-11-22 15:27:27 - 231 Server - Memory: CRITICAL - Socket timeout after 10 seconds
+2015-11-22 15:57:32 - 231 Server - Memory: CRITICAL - Socket timeout after 10 seconds
+2015-11-22 16:27:35 - 231 Server - Memory: CRITICAL - Socket timeout after 10 seconds
+2015-11-22 16:57:40 - 231 Server - Memory: CRITICAL - Socket timeout after 10 seconds
+2015-11-22 16:58:23 - 231 Server - Memory: CRITICAL - Socket timeout after 10 seconds
+2015-11-22 19:02:56 - 231 Server - Memory: Memory usage: total:9471.63 Mb - used: 595.59 Mb (6%) - free: 8876.04 Mb (94%) </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I24" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <rFont val="Calibri"/>
+            <b val="false"/>
+            <i val="false"/>
+            <strike val="false"/>
+            <color rgb="FF000000"/>
+            <sz val="11"/>
+            <u val="none"/>
+          </rPr>
+          <t xml:space="preserve">2015-11-21 16:22:43 - 231 Server - C: Drive: CRITICAL - Socket timeout after 10 seconds
+2015-11-21 16:52:47 - 231 Server - C: Drive: CRITICAL - Socket timeout after 10 seconds
+2015-11-21 17:22:52 - 231 Server - C: Drive: CRITICAL - Socket timeout after 10 seconds
+2015-11-21 17:52:56 - 231 Server - C: Drive: CRITICAL - Socket timeout after 10 seconds
+2015-11-21 18:23:00 - 231 Server - C: Drive: CRITICAL - Socket timeout after 10 seconds
+2015-11-21 18:53:04 - 231 Server - C: Drive: CRITICAL - Socket timeout after 10 seconds
+2015-11-21 19:23:09 - 231 Server - C: Drive: CRITICAL - Socket timeout after 10 seconds
+2015-11-21 19:53:14 - 231 Server - C: Drive: CRITICAL - Socket timeout after 10 seconds
+2015-11-21 20:23:18 - 231 Server - C: Drive: CRITICAL - Socket timeout after 10 seconds
+2015-11-21 20:53:23 - 231 Server - C: Drive: CRITICAL - Socket timeout after 10 seconds
+2015-11-21 21:23:27 - 231 Server - C: Drive: CRITICAL - Socket timeout after 10 seconds
+2015-11-21 21:53:32 - 231 Server - C: Drive: CRITICAL - Socket timeout after 10 seconds
+2015-11-21 22:23:36 - 231 Server - C: Drive: CRITICAL - Socket timeout after 10 seconds
+2015-11-21 22:53:41 - 231 Server - C: Drive: CRITICAL - Socket timeout after 10 seconds
+2015-11-21 23:23:44 - 231 Server - C: Drive: CRITICAL - Socket timeout after 10 seconds
+2015-11-21 23:53:45 - 231 Server - C: Drive: CRITICAL - Socket timeout after 10 seconds</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I25" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <rFont val="Calibri"/>
+            <b val="false"/>
+            <i val="false"/>
+            <strike val="false"/>
+            <color rgb="FF000000"/>
+            <sz val="11"/>
+            <u val="none"/>
+          </rPr>
+          <t xml:space="preserve">2015-11-22 00:01:35 - 231 Server - C: Drive: CRITICAL - Socket timeout after 10 seconds
+2015-11-22 00:16:12 - 231 Server - C: Drive: C:\ - total: 499.66 Gb - used: 11.41 Gb (2%) - free 488.25 Gb (98%) 
+2015-11-22 15:04:54 - 231 Server - C: Drive: C:\ - total: 499.66 Gb - used: 11.40 Gb (2%) - free 488.25 Gb (98%) 
+2015-11-22 15:21:56 - 231 Server - C: Drive: CRITICAL - Socket timeout after 10 seconds
+2015-11-22 15:25:52 - 231 Server - C: Drive: CRITICAL - Socket timeout after 10 seconds
+2015-11-22 15:55:57 - 231 Server - C: Drive: CRITICAL - Socket timeout after 10 seconds
+2015-11-22 16:26:00 - 231 Server - C: Drive: CRITICAL - Socket timeout after 10 seconds
+2015-11-22 16:56:05 - 231 Server - C: Drive: CRITICAL - Socket timeout after 10 seconds
+2015-11-22 16:58:29 - 231 Server - C: Drive: CRITICAL - Socket timeout after 10 seconds
+2015-11-22 19:03:46 - 231 Server - C: Drive: C:\ - total: 499.66 Gb - used: 11.36 Gb (2%) - free 488.29 Gb (98%) </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J24" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <rFont val="Calibri"/>
+            <b val="false"/>
+            <i val="false"/>
+            <strike val="false"/>
+            <color rgb="FF000000"/>
+            <sz val="11"/>
+            <u val="none"/>
+          </rPr>
+          <t xml:space="preserve">2015-11-21 15:43:34 - 232 Server - Alive: CRITICAL - Host Unreachable (192.168.0.232)
+2015-11-21 15:50:49 - 232 Server - Alive: CRITICAL - Host Unreachable (192.168.0.232)
+2015-11-21 16:13:36 - 232 Server - Alive: PING OK - Packet loss = 0%, RTA = 1.30 ms</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J25" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <rFont val="Calibri"/>
+            <b val="false"/>
+            <i val="false"/>
+            <strike val="false"/>
+            <color rgb="FF000000"/>
+            <sz val="11"/>
+            <u val="none"/>
+          </rPr>
+          <t xml:space="preserve">2015-11-22 02:04:43 - 232 Server - Alive: CRITICAL - Host Unreachable (192.168.0.232)
+2015-11-22 02:22:14 - 232 Server - Alive: CRITICAL - Host Unreachable (192.168.0.232)
+2015-11-22 02:52:18 - 232 Server - Alive: CRITICAL - Host Unreachable (192.168.0.232)
+2015-11-22 03:22:22 - 232 Server - Alive: CRITICAL - Host Unreachable (192.168.0.232)
+2015-11-22 03:44:36 - 232 Server - Alive: CRITICAL - Host Unreachable (192.168.0.232)
+2015-11-22 15:04:44 - 232 Server - Alive: PING OK - Packet loss = 0%, RTA = 0.49 ms
+2015-11-22 19:00:10 - 232 Server - Alive: PING CRITICAL - Packet loss = 100%
+2015-11-22 19:02:44 - 232 Server - Alive: PING OK - Packet loss = 0%, RTA = 0.39 ms</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K24" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <rFont val="Calibri"/>
+            <b val="false"/>
+            <i val="false"/>
+            <strike val="false"/>
+            <color rgb="FF000000"/>
+            <sz val="11"/>
+            <u val="none"/>
+          </rPr>
+          <t xml:space="preserve">2015-11-21 16:21:53 - 232 Server - CPU: CRITICAL - Socket timeout after 10 seconds
+2015-11-21 16:51:57 - 232 Server - CPU: CRITICAL - Socket timeout after 10 seconds
+2015-11-21 17:22:02 - 232 Server - CPU: CRITICAL - Socket timeout after 10 seconds
+2015-11-21 17:52:06 - 232 Server - CPU: CRITICAL - Socket timeout after 10 seconds
+2015-11-21 18:22:10 - 232 Server - CPU: CRITICAL - Socket timeout after 10 seconds
+2015-11-21 18:52:14 - 232 Server - CPU: CRITICAL - Socket timeout after 10 seconds
+2015-11-21 19:22:19 - 232 Server - CPU: CRITICAL - Socket timeout after 10 seconds
+2015-11-21 19:52:24 - 232 Server - CPU: CRITICAL - Socket timeout after 10 seconds
+2015-11-21 20:22:28 - 232 Server - CPU: CRITICAL - Socket timeout after 10 seconds
+2015-11-21 20:52:33 - 232 Server - CPU: CRITICAL - Socket timeout after 10 seconds
+2015-11-21 21:22:37 - 232 Server - CPU: CRITICAL - Socket timeout after 10 seconds
+2015-11-21 21:52:42 - 232 Server - CPU: CRITICAL - Socket timeout after 10 seconds
+2015-11-21 22:22:46 - 232 Server - CPU: CRITICAL - Socket timeout after 10 seconds
+2015-11-21 22:52:51 - 232 Server - CPU: CRITICAL - Socket timeout after 10 seconds
+2015-11-21 23:22:54 - 232 Server - CPU: CRITICAL - Socket timeout after 10 seconds
+2015-11-21 23:52:55 - 232 Server - CPU: CRITICAL - Socket timeout after 10 seconds</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K25" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <rFont val="Calibri"/>
+            <b val="false"/>
+            <i val="false"/>
+            <strike val="false"/>
+            <color rgb="FF000000"/>
+            <sz val="11"/>
+            <u val="none"/>
+          </rPr>
+          <t xml:space="preserve">2015-11-22 00:01:26 - 232 Server - CPU: CRITICAL - Socket timeout after 10 seconds</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L24" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <rFont val="Calibri"/>
+            <b val="false"/>
+            <i val="false"/>
+            <strike val="false"/>
+            <color rgb="FF000000"/>
+            <sz val="11"/>
+            <u val="none"/>
+          </rPr>
+          <t xml:space="preserve">2015-11-21 16:21:53 - 232 Server - Memory: CRITICAL - Socket timeout after 10 seconds
+2015-11-21 16:51:57 - 232 Server - Memory: CRITICAL - Socket timeout after 10 seconds
+2015-11-21 17:22:02 - 232 Server - Memory: CRITICAL - Socket timeout after 10 seconds
+2015-11-21 17:52:06 - 232 Server - Memory: CRITICAL - Socket timeout after 10 seconds
+2015-11-21 18:22:10 - 232 Server - Memory: CRITICAL - Socket timeout after 10 seconds
+2015-11-21 18:52:14 - 232 Server - Memory: CRITICAL - Socket timeout after 10 seconds
+2015-11-21 19:22:19 - 232 Server - Memory: CRITICAL - Socket timeout after 10 seconds
+2015-11-21 19:52:24 - 232 Server - Memory: CRITICAL - Socket timeout after 10 seconds
+2015-11-21 20:22:28 - 232 Server - Memory: CRITICAL - Socket timeout after 10 seconds
+2015-11-21 20:52:33 - 232 Server - Memory: CRITICAL - Socket timeout after 10 seconds
+2015-11-21 21:22:37 - 232 Server - Memory: CRITICAL - Socket timeout after 10 seconds
+2015-11-21 21:52:42 - 232 Server - Memory: CRITICAL - Socket timeout after 10 seconds
+2015-11-21 22:22:46 - 232 Server - Memory: CRITICAL - Socket timeout after 10 seconds
+2015-11-21 22:52:51 - 232 Server - Memory: CRITICAL - Socket timeout after 10 seconds
+2015-11-21 23:22:54 - 232 Server - Memory: CRITICAL - Socket timeout after 10 seconds
+2015-11-21 23:52:55 - 232 Server - Memory: CRITICAL - Socket timeout after 10 seconds</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L25" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <rFont val="Calibri"/>
+            <b val="false"/>
+            <i val="false"/>
+            <strike val="false"/>
+            <color rgb="FF000000"/>
+            <sz val="11"/>
+            <u val="none"/>
+          </rPr>
+          <t xml:space="preserve">2015-11-22 00:01:32 - 232 Server - Memory: CRITICAL - Socket timeout after 10 seconds</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M24" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <rFont val="Calibri"/>
+            <b val="false"/>
+            <i val="false"/>
+            <strike val="false"/>
+            <color rgb="FF000000"/>
+            <sz val="11"/>
+            <u val="none"/>
+          </rPr>
+          <t xml:space="preserve">2015-11-21 16:22:43 - 232 Server - C: Drive: CRITICAL - Socket timeout after 10 seconds
+2015-11-21 16:52:47 - 232 Server - C: Drive: CRITICAL - Socket timeout after 10 seconds
+2015-11-21 17:22:52 - 232 Server - C: Drive: CRITICAL - Socket timeout after 10 seconds
+2015-11-21 17:52:56 - 232 Server - C: Drive: CRITICAL - Socket timeout after 10 seconds
+2015-11-21 18:23:00 - 232 Server - C: Drive: CRITICAL - Socket timeout after 10 seconds
+2015-11-21 18:53:04 - 232 Server - C: Drive: CRITICAL - Socket timeout after 10 seconds
+2015-11-21 19:23:09 - 232 Server - C: Drive: CRITICAL - Socket timeout after 10 seconds
+2015-11-21 19:53:14 - 232 Server - C: Drive: CRITICAL - Socket timeout after 10 seconds
+2015-11-21 20:23:18 - 232 Server - C: Drive: CRITICAL - Socket timeout after 10 seconds
+2015-11-21 20:53:23 - 232 Server - C: Drive: CRITICAL - Socket timeout after 10 seconds
+2015-11-21 21:23:27 - 232 Server - C: Drive: CRITICAL - Socket timeout after 10 seconds
+2015-11-21 21:53:32 - 232 Server - C: Drive: CRITICAL - Socket timeout after 10 seconds
+2015-11-21 22:23:36 - 232 Server - C: Drive: CRITICAL - Socket timeout after 10 seconds
+2015-11-21 22:53:41 - 232 Server - C: Drive: CRITICAL - Socket timeout after 10 seconds
+2015-11-21 23:23:44 - 232 Server - C: Drive: CRITICAL - Socket timeout after 10 seconds
+2015-11-21 23:53:45 - 232 Server - C: Drive: CRITICAL - Socket timeout after 10 seconds</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M25" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <rFont val="Calibri"/>
+            <b val="false"/>
+            <i val="false"/>
+            <strike val="false"/>
+            <color rgb="FF000000"/>
+            <sz val="11"/>
+            <u val="none"/>
+          </rPr>
+          <t xml:space="preserve">2015-11-22 00:01:21 - 232 Server - C: Drive: CRITICAL - Socket timeout after 10 seconds</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N24" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <rFont val="Calibri"/>
+            <b val="false"/>
+            <i val="false"/>
+            <strike val="false"/>
+            <color rgb="FF000000"/>
+            <sz val="11"/>
+            <u val="none"/>
+          </rPr>
+          <t xml:space="preserve">2015-11-21 16:22:43 - 232 Server - D: Drive: CRITICAL - Socket timeout after 10 seconds
+2015-11-21 16:52:47 - 232 Server - D: Drive: CRITICAL - Socket timeout after 10 seconds
+2015-11-21 17:22:52 - 232 Server - D: Drive: CRITICAL - Socket timeout after 10 seconds
+2015-11-21 17:52:56 - 232 Server - D: Drive: CRITICAL - Socket timeout after 10 seconds
+2015-11-21 18:23:00 - 232 Server - D: Drive: CRITICAL - Socket timeout after 10 seconds
+2015-11-21 18:53:04 - 232 Server - D: Drive: CRITICAL - Socket timeout after 10 seconds
+2015-11-21 19:23:09 - 232 Server - D: Drive: CRITICAL - Socket timeout after 10 seconds
+2015-11-21 19:53:14 - 232 Server - D: Drive: CRITICAL - Socket timeout after 10 seconds
+2015-11-21 20:23:18 - 232 Server - D: Drive: CRITICAL - Socket timeout after 10 seconds
+2015-11-21 20:53:23 - 232 Server - D: Drive: CRITICAL - Socket timeout after 10 seconds
+2015-11-21 21:23:27 - 232 Server - D: Drive: CRITICAL - Socket timeout after 10 seconds
+2015-11-21 21:53:32 - 232 Server - D: Drive: CRITICAL - Socket timeout after 10 seconds
+2015-11-21 22:23:36 - 232 Server - D: Drive: CRITICAL - Socket timeout after 10 seconds
+2015-11-21 22:53:41 - 232 Server - D: Drive: CRITICAL - Socket timeout after 10 seconds
+2015-11-21 23:23:44 - 232 Server - D: Drive: CRITICAL - Socket timeout after 10 seconds
+2015-11-21 23:53:45 - 232 Server - D: Drive: CRITICAL - Socket timeout after 10 seconds</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N25" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <rFont val="Calibri"/>
+            <b val="false"/>
+            <i val="false"/>
+            <strike val="false"/>
+            <color rgb="FF000000"/>
+            <sz val="11"/>
+            <u val="none"/>
+          </rPr>
+          <t xml:space="preserve">2015-11-22 00:01:50 - 232 Server - D: Drive: CRITICAL - Socket timeout after 10 seconds</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="251">
   <si>
     <t>Availability Report</t>
   </si>
@@ -245,18 +776,69 @@
     <t>2015-11-17</t>
   </si>
   <si>
+    <t>2015-11-18</t>
+  </si>
+  <si>
+    <t>2015-11-19</t>
+  </si>
+  <si>
+    <t>2015-11-20</t>
+  </si>
+  <si>
+    <t>2015-11-21</t>
+  </si>
+  <si>
+    <t>2015-11-22</t>
+  </si>
+  <si>
+    <t>Ping_to_8.8.8.8 Notifications</t>
+  </si>
+  <si>
+    <t>Timestamp</t>
+  </si>
+  <si>
+    <t>Object Name</t>
+  </si>
+  <si>
+    <t>Message</t>
+  </si>
+  <si>
+    <t>2015-11-18 13:21:55</t>
+  </si>
+  <si>
+    <t>Ping_to_8.8.8.8</t>
+  </si>
+  <si>
+    <t>PING WARNING - Packet loss = 0%, RTA = 742.49 ms</t>
+  </si>
+  <si>
+    <t>2015-11-18 13:25:54</t>
+  </si>
+  <si>
+    <t>PING OK - Packet loss = 0%, RTA = 317.72 ms</t>
+  </si>
+  <si>
+    <t>2015-11-18 13:32:25</t>
+  </si>
+  <si>
+    <t>PING WARNING - Packet loss = 0%, RTA = 615.85 ms</t>
+  </si>
+  <si>
+    <t>2015-11-18 13:35:51</t>
+  </si>
+  <si>
+    <t>PING WARNING - Packet loss = 0%, RTA = 613.88 ms</t>
+  </si>
+  <si>
+    <t>2015-11-18 13:37:54</t>
+  </si>
+  <si>
+    <t>PING OK - Packet loss = 0%, RTA = 33.93 ms</t>
+  </si>
+  <si>
     <t>AML_Main_Site Notifications</t>
   </si>
   <si>
-    <t>Timestamp</t>
-  </si>
-  <si>
-    <t>Object Name</t>
-  </si>
-  <si>
-    <t>Message</t>
-  </si>
-  <si>
     <t>2015-11-01 03:02:44</t>
   </si>
   <si>
@@ -345,6 +927,480 @@
   </si>
   <si>
     <t>PING OK - Packet loss = 0%, RTA = 378.28 ms</t>
+  </si>
+  <si>
+    <t>2015-11-22 04:15:20</t>
+  </si>
+  <si>
+    <t>PING CRITICAL - Packet loss = 58%, RTA = 9490.41 ms</t>
+  </si>
+  <si>
+    <t>2015-11-22 04:15:43</t>
+  </si>
+  <si>
+    <t>PING OK - Packet loss = 0%, RTA = 5.24 ms</t>
+  </si>
+  <si>
+    <t>2015-11-22 06:31:52</t>
+  </si>
+  <si>
+    <t>PING CRITICAL - Packet loss = 64%, RTA = 11195.06 ms</t>
+  </si>
+  <si>
+    <t>2015-11-22 06:32:13</t>
+  </si>
+  <si>
+    <t>PING OK - Packet loss = 0%, RTA = 97.45 ms</t>
+  </si>
+  <si>
+    <t>230_Server_-_Alive Notifications</t>
+  </si>
+  <si>
+    <t>2015-11-21 15:44:42</t>
+  </si>
+  <si>
+    <t>230_Server_-_Alive</t>
+  </si>
+  <si>
+    <t>CRITICAL - Host Unreachable (192.168.0.230)</t>
+  </si>
+  <si>
+    <t>2015-11-21 15:54:24</t>
+  </si>
+  <si>
+    <t>2015-11-21 16:01:07</t>
+  </si>
+  <si>
+    <t>PING WARNING - Packet loss = 82%, RTA = 0.57 ms</t>
+  </si>
+  <si>
+    <t>2015-11-21 16:01:43</t>
+  </si>
+  <si>
+    <t>PING OK - Packet loss = 0%, RTA = 0.89 ms</t>
+  </si>
+  <si>
+    <t>2015-11-22 02:04:11</t>
+  </si>
+  <si>
+    <t>2015-11-22 02:25:49</t>
+  </si>
+  <si>
+    <t>2015-11-22 02:55:53</t>
+  </si>
+  <si>
+    <t>2015-11-22 03:25:57</t>
+  </si>
+  <si>
+    <t>2015-11-22 03:44:28</t>
+  </si>
+  <si>
+    <t>2015-11-22 15:03:12</t>
+  </si>
+  <si>
+    <t>PING OK - Packet loss = 0%, RTA = 0.41 ms</t>
+  </si>
+  <si>
+    <t>2015-11-22 19:00:30</t>
+  </si>
+  <si>
+    <t>2015-11-22 19:01:17</t>
+  </si>
+  <si>
+    <t>PING OK - Packet loss = 50%, RTA = 0.86 ms</t>
+  </si>
+  <si>
+    <t>231_Server_-_Alive Notifications</t>
+  </si>
+  <si>
+    <t>2015-11-21 15:43:08</t>
+  </si>
+  <si>
+    <t>231_Server_-_Alive</t>
+  </si>
+  <si>
+    <t>CRITICAL - Host Unreachable (192.168.0.231)</t>
+  </si>
+  <si>
+    <t>2015-11-21 15:49:34</t>
+  </si>
+  <si>
+    <t>2015-11-21 16:13:35</t>
+  </si>
+  <si>
+    <t>PING WARNING - Packet loss = 83%, RTA = 1.58 ms</t>
+  </si>
+  <si>
+    <t>2015-11-21 16:14:10</t>
+  </si>
+  <si>
+    <t>PING OK - Packet loss = 0%, RTA = 9.46 ms</t>
+  </si>
+  <si>
+    <t>2015-11-22 02:04:43</t>
+  </si>
+  <si>
+    <t>2015-11-22 02:20:59</t>
+  </si>
+  <si>
+    <t>2015-11-22 02:51:03</t>
+  </si>
+  <si>
+    <t>2015-11-22 03:21:07</t>
+  </si>
+  <si>
+    <t>2015-11-22 03:44:32</t>
+  </si>
+  <si>
+    <t>2015-11-22 15:04:44</t>
+  </si>
+  <si>
+    <t>PING OK - Packet loss = 0%, RTA = 1.50 ms</t>
+  </si>
+  <si>
+    <t>2015-11-22 18:58:43</t>
+  </si>
+  <si>
+    <t>2015-11-22 19:02:44</t>
+  </si>
+  <si>
+    <t>PING OK - Packet loss = 0%, RTA = 0.58 ms</t>
+  </si>
+  <si>
+    <t>231_Server_-_Cpu Notifications</t>
+  </si>
+  <si>
+    <t>2015-11-21 16:24:18</t>
+  </si>
+  <si>
+    <t>231_Server_-_Cpu</t>
+  </si>
+  <si>
+    <t>CRITICAL - Socket timeout after 10 seconds</t>
+  </si>
+  <si>
+    <t>2015-11-21 16:54:22</t>
+  </si>
+  <si>
+    <t>2015-11-21 17:24:27</t>
+  </si>
+  <si>
+    <t>2015-11-21 17:54:31</t>
+  </si>
+  <si>
+    <t>2015-11-21 18:24:35</t>
+  </si>
+  <si>
+    <t>2015-11-21 18:54:39</t>
+  </si>
+  <si>
+    <t>2015-11-21 19:24:44</t>
+  </si>
+  <si>
+    <t>2015-11-21 19:54:48</t>
+  </si>
+  <si>
+    <t>2015-11-21 20:24:53</t>
+  </si>
+  <si>
+    <t>2015-11-21 20:54:58</t>
+  </si>
+  <si>
+    <t>2015-11-21 21:25:02</t>
+  </si>
+  <si>
+    <t>2015-11-21 21:55:07</t>
+  </si>
+  <si>
+    <t>2015-11-21 22:25:11</t>
+  </si>
+  <si>
+    <t>2015-11-21 22:55:16</t>
+  </si>
+  <si>
+    <t>2015-11-21 23:25:19</t>
+  </si>
+  <si>
+    <t>2015-11-21 23:55:20</t>
+  </si>
+  <si>
+    <t>2015-11-22 00:01:53</t>
+  </si>
+  <si>
+    <t>2015-11-22 00:16:20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CPU Load 0% (60 min average) </t>
+  </si>
+  <si>
+    <t>2015-11-22 15:04:53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CPU Load 1% (60 min average) </t>
+  </si>
+  <si>
+    <t>2015-11-22 15:21:56</t>
+  </si>
+  <si>
+    <t>2015-11-22 15:27:27</t>
+  </si>
+  <si>
+    <t>2015-11-22 15:57:32</t>
+  </si>
+  <si>
+    <t>2015-11-22 16:27:35</t>
+  </si>
+  <si>
+    <t>2015-11-22 16:57:40</t>
+  </si>
+  <si>
+    <t>2015-11-22 16:58:33</t>
+  </si>
+  <si>
+    <t>2015-11-22 19:03:46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CPU Load 9% (60 min average) </t>
+  </si>
+  <si>
+    <t>231_Server_-_Memory Notifications</t>
+  </si>
+  <si>
+    <t>231_Server_-_Memory</t>
+  </si>
+  <si>
+    <t>2015-11-22 00:01:38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Memory usage: total:9471.63 Mb - used: 1033.87 Mb (11%) - free: 8437.76 Mb (89%) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Memory usage: total:9471.63 Mb - used: 604.99 Mb (6%) - free: 8866.64 Mb (94%) </t>
+  </si>
+  <si>
+    <t>2015-11-22 15:21:59</t>
+  </si>
+  <si>
+    <t>2015-11-22 16:58:23</t>
+  </si>
+  <si>
+    <t>2015-11-22 19:02:56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Memory usage: total:9471.63 Mb - used: 595.59 Mb (6%) - free: 8876.04 Mb (94%) </t>
+  </si>
+  <si>
+    <t>231_Server_-_C_Drive Notifications</t>
+  </si>
+  <si>
+    <t>2015-11-21 16:22:43</t>
+  </si>
+  <si>
+    <t>231_Server_-_C_Drive</t>
+  </si>
+  <si>
+    <t>2015-11-21 16:52:47</t>
+  </si>
+  <si>
+    <t>2015-11-21 17:22:52</t>
+  </si>
+  <si>
+    <t>2015-11-21 17:52:56</t>
+  </si>
+  <si>
+    <t>2015-11-21 18:23:00</t>
+  </si>
+  <si>
+    <t>2015-11-21 18:53:04</t>
+  </si>
+  <si>
+    <t>2015-11-21 19:23:09</t>
+  </si>
+  <si>
+    <t>2015-11-21 19:53:14</t>
+  </si>
+  <si>
+    <t>2015-11-21 20:23:18</t>
+  </si>
+  <si>
+    <t>2015-11-21 20:53:23</t>
+  </si>
+  <si>
+    <t>2015-11-21 21:23:27</t>
+  </si>
+  <si>
+    <t>2015-11-21 21:53:32</t>
+  </si>
+  <si>
+    <t>2015-11-21 22:23:36</t>
+  </si>
+  <si>
+    <t>2015-11-21 22:53:41</t>
+  </si>
+  <si>
+    <t>2015-11-21 23:23:44</t>
+  </si>
+  <si>
+    <t>2015-11-21 23:53:45</t>
+  </si>
+  <si>
+    <t>2015-11-22 00:01:35</t>
+  </si>
+  <si>
+    <t>2015-11-22 00:16:12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C:\ - total: 499.66 Gb - used: 11.41 Gb (2%) - free 488.25 Gb (98%) </t>
+  </si>
+  <si>
+    <t>2015-11-22 15:04:54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C:\ - total: 499.66 Gb - used: 11.40 Gb (2%) - free 488.25 Gb (98%) </t>
+  </si>
+  <si>
+    <t>2015-11-22 15:25:52</t>
+  </si>
+  <si>
+    <t>2015-11-22 15:55:57</t>
+  </si>
+  <si>
+    <t>2015-11-22 16:26:00</t>
+  </si>
+  <si>
+    <t>2015-11-22 16:56:05</t>
+  </si>
+  <si>
+    <t>2015-11-22 16:58:29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C:\ - total: 499.66 Gb - used: 11.36 Gb (2%) - free 488.29 Gb (98%) </t>
+  </si>
+  <si>
+    <t>232_Server_-_Alive Notifications</t>
+  </si>
+  <si>
+    <t>2015-11-21 15:43:34</t>
+  </si>
+  <si>
+    <t>232_Server_-_Alive</t>
+  </si>
+  <si>
+    <t>CRITICAL - Host Unreachable (192.168.0.232)</t>
+  </si>
+  <si>
+    <t>2015-11-21 15:50:49</t>
+  </si>
+  <si>
+    <t>2015-11-21 16:13:36</t>
+  </si>
+  <si>
+    <t>PING OK - Packet loss = 0%, RTA = 1.30 ms</t>
+  </si>
+  <si>
+    <t>2015-11-22 02:22:14</t>
+  </si>
+  <si>
+    <t>2015-11-22 02:52:18</t>
+  </si>
+  <si>
+    <t>2015-11-22 03:22:22</t>
+  </si>
+  <si>
+    <t>2015-11-22 03:44:36</t>
+  </si>
+  <si>
+    <t>PING OK - Packet loss = 0%, RTA = 0.49 ms</t>
+  </si>
+  <si>
+    <t>2015-11-22 19:00:10</t>
+  </si>
+  <si>
+    <t>PING OK - Packet loss = 0%, RTA = 0.39 ms</t>
+  </si>
+  <si>
+    <t>232_Server_-_CPU Notifications</t>
+  </si>
+  <si>
+    <t>2015-11-21 16:21:53</t>
+  </si>
+  <si>
+    <t>232_Server_-_CPU</t>
+  </si>
+  <si>
+    <t>2015-11-21 16:51:57</t>
+  </si>
+  <si>
+    <t>2015-11-21 17:22:02</t>
+  </si>
+  <si>
+    <t>2015-11-21 17:52:06</t>
+  </si>
+  <si>
+    <t>2015-11-21 18:22:10</t>
+  </si>
+  <si>
+    <t>2015-11-21 18:52:14</t>
+  </si>
+  <si>
+    <t>2015-11-21 19:22:19</t>
+  </si>
+  <si>
+    <t>2015-11-21 19:52:24</t>
+  </si>
+  <si>
+    <t>2015-11-21 20:22:28</t>
+  </si>
+  <si>
+    <t>2015-11-21 20:52:33</t>
+  </si>
+  <si>
+    <t>2015-11-21 21:22:37</t>
+  </si>
+  <si>
+    <t>2015-11-21 21:52:42</t>
+  </si>
+  <si>
+    <t>2015-11-21 22:22:46</t>
+  </si>
+  <si>
+    <t>2015-11-21 22:52:51</t>
+  </si>
+  <si>
+    <t>2015-11-21 23:22:54</t>
+  </si>
+  <si>
+    <t>2015-11-21 23:52:55</t>
+  </si>
+  <si>
+    <t>2015-11-22 00:01:26</t>
+  </si>
+  <si>
+    <t>232_Server_-_Memory Notifications</t>
+  </si>
+  <si>
+    <t>232_Server_-_Memory</t>
+  </si>
+  <si>
+    <t>2015-11-22 00:01:32</t>
+  </si>
+  <si>
+    <t>232_Server_-_C_Drive Notifications</t>
+  </si>
+  <si>
+    <t>232_Server_-_C_Drive</t>
+  </si>
+  <si>
+    <t>2015-11-22 00:01:21</t>
+  </si>
+  <si>
+    <t>232_Server_-_D_Drive Notifications</t>
+  </si>
+  <si>
+    <t>232_Server_-_D_Drive</t>
+  </si>
+  <si>
+    <t>2015-11-22 00:01:50</t>
   </si>
 </sst>
 </file>
@@ -683,7 +1739,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:W20"/>
+  <dimension ref="A1:W25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -1996,6 +3052,361 @@
         <v>24</v>
       </c>
     </row>
+    <row r="21" spans="1:23">
+      <c r="A21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" t="s">
+        <v>24</v>
+      </c>
+      <c r="F21" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21" t="s">
+        <v>24</v>
+      </c>
+      <c r="H21" t="s">
+        <v>24</v>
+      </c>
+      <c r="I21" t="s">
+        <v>24</v>
+      </c>
+      <c r="J21" t="s">
+        <v>24</v>
+      </c>
+      <c r="K21" t="s">
+        <v>24</v>
+      </c>
+      <c r="L21" t="s">
+        <v>24</v>
+      </c>
+      <c r="M21" t="s">
+        <v>24</v>
+      </c>
+      <c r="N21" t="s">
+        <v>24</v>
+      </c>
+      <c r="O21" t="s">
+        <v>24</v>
+      </c>
+      <c r="P21" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>24</v>
+      </c>
+      <c r="R21" t="s">
+        <v>24</v>
+      </c>
+      <c r="S21" t="s">
+        <v>24</v>
+      </c>
+      <c r="T21" t="s">
+        <v>24</v>
+      </c>
+      <c r="U21" t="s">
+        <v>24</v>
+      </c>
+      <c r="V21" t="s">
+        <v>24</v>
+      </c>
+      <c r="W21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" t="s">
+        <v>24</v>
+      </c>
+      <c r="F22" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22" t="s">
+        <v>24</v>
+      </c>
+      <c r="H22" t="s">
+        <v>24</v>
+      </c>
+      <c r="I22" t="s">
+        <v>24</v>
+      </c>
+      <c r="J22" t="s">
+        <v>24</v>
+      </c>
+      <c r="K22" t="s">
+        <v>24</v>
+      </c>
+      <c r="L22" t="s">
+        <v>24</v>
+      </c>
+      <c r="M22" t="s">
+        <v>24</v>
+      </c>
+      <c r="N22" t="s">
+        <v>24</v>
+      </c>
+      <c r="O22" t="s">
+        <v>24</v>
+      </c>
+      <c r="P22" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>24</v>
+      </c>
+      <c r="R22" t="s">
+        <v>24</v>
+      </c>
+      <c r="S22" t="s">
+        <v>24</v>
+      </c>
+      <c r="T22" t="s">
+        <v>24</v>
+      </c>
+      <c r="U22" t="s">
+        <v>24</v>
+      </c>
+      <c r="V22" t="s">
+        <v>24</v>
+      </c>
+      <c r="W22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" t="s">
+        <v>24</v>
+      </c>
+      <c r="F23" t="s">
+        <v>24</v>
+      </c>
+      <c r="G23" t="s">
+        <v>24</v>
+      </c>
+      <c r="H23" t="s">
+        <v>24</v>
+      </c>
+      <c r="I23" t="s">
+        <v>24</v>
+      </c>
+      <c r="J23" t="s">
+        <v>24</v>
+      </c>
+      <c r="K23" t="s">
+        <v>24</v>
+      </c>
+      <c r="L23" t="s">
+        <v>24</v>
+      </c>
+      <c r="M23" t="s">
+        <v>24</v>
+      </c>
+      <c r="N23" t="s">
+        <v>24</v>
+      </c>
+      <c r="O23" t="s">
+        <v>24</v>
+      </c>
+      <c r="P23" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>24</v>
+      </c>
+      <c r="R23" t="s">
+        <v>24</v>
+      </c>
+      <c r="S23" t="s">
+        <v>24</v>
+      </c>
+      <c r="T23" t="s">
+        <v>24</v>
+      </c>
+      <c r="U23" t="s">
+        <v>24</v>
+      </c>
+      <c r="V23" t="s">
+        <v>24</v>
+      </c>
+      <c r="W23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" t="s">
+        <v>25</v>
+      </c>
+      <c r="G24" t="s">
+        <v>25</v>
+      </c>
+      <c r="H24" t="s">
+        <v>25</v>
+      </c>
+      <c r="I24" t="s">
+        <v>25</v>
+      </c>
+      <c r="J24" t="s">
+        <v>25</v>
+      </c>
+      <c r="K24" t="s">
+        <v>25</v>
+      </c>
+      <c r="L24" t="s">
+        <v>25</v>
+      </c>
+      <c r="M24" t="s">
+        <v>25</v>
+      </c>
+      <c r="N24" t="s">
+        <v>25</v>
+      </c>
+      <c r="O24" t="s">
+        <v>24</v>
+      </c>
+      <c r="P24" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>24</v>
+      </c>
+      <c r="R24" t="s">
+        <v>24</v>
+      </c>
+      <c r="S24" t="s">
+        <v>24</v>
+      </c>
+      <c r="T24" t="s">
+        <v>24</v>
+      </c>
+      <c r="U24" t="s">
+        <v>24</v>
+      </c>
+      <c r="V24" t="s">
+        <v>24</v>
+      </c>
+      <c r="W24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F25" t="s">
+        <v>25</v>
+      </c>
+      <c r="G25" t="s">
+        <v>25</v>
+      </c>
+      <c r="H25" t="s">
+        <v>25</v>
+      </c>
+      <c r="I25" t="s">
+        <v>25</v>
+      </c>
+      <c r="J25" t="s">
+        <v>25</v>
+      </c>
+      <c r="K25" t="s">
+        <v>25</v>
+      </c>
+      <c r="L25" t="s">
+        <v>25</v>
+      </c>
+      <c r="M25" t="s">
+        <v>25</v>
+      </c>
+      <c r="N25" t="s">
+        <v>25</v>
+      </c>
+      <c r="O25" t="s">
+        <v>24</v>
+      </c>
+      <c r="P25" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>24</v>
+      </c>
+      <c r="R25" t="s">
+        <v>24</v>
+      </c>
+      <c r="S25" t="s">
+        <v>24</v>
+      </c>
+      <c r="T25" t="s">
+        <v>24</v>
+      </c>
+      <c r="U25" t="s">
+        <v>24</v>
+      </c>
+      <c r="V25" t="s">
+        <v>24</v>
+      </c>
+      <c r="W25" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
@@ -2013,12 +3424,1128 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:R20"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="36.419678" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="19.995117" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="50.559082" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="9.10" bestFit="true" style="0"/>
+    <col min="5" max="5" width="9.10" bestFit="true" style="0"/>
+    <col min="6" max="6" width="9.10" bestFit="true" style="0"/>
+    <col min="7" max="7" width="9.10" bestFit="true" style="0"/>
+    <col min="8" max="8" width="9.10" bestFit="true" style="0"/>
+    <col min="9" max="9" width="9.10" bestFit="true" style="0"/>
+    <col min="10" max="10" width="9.10" bestFit="true" style="0"/>
+    <col min="11" max="11" width="9.10" bestFit="true" style="0"/>
+    <col min="12" max="12" width="9.10" bestFit="true" style="0"/>
+    <col min="13" max="13" width="9.10" bestFit="true" style="0"/>
+    <col min="14" max="14" width="9.10" bestFit="true" style="0"/>
+    <col min="15" max="15" width="9.10" bestFit="true" style="0"/>
+    <col min="16" max="16" width="9.10" bestFit="true" style="0"/>
+    <col min="17" max="17" width="9.10" bestFit="true" style="0"/>
+    <col min="18" max="18" width="9.10" bestFit="true" style="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18">
+      <c r="A1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" t="s">
+        <v>224</v>
+      </c>
+      <c r="B4" t="s">
+        <v>225</v>
+      </c>
+      <c r="C4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" t="s">
+        <v>226</v>
+      </c>
+      <c r="B5" t="s">
+        <v>225</v>
+      </c>
+      <c r="C5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" t="s">
+        <v>227</v>
+      </c>
+      <c r="B6" t="s">
+        <v>225</v>
+      </c>
+      <c r="C6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" t="s">
+        <v>228</v>
+      </c>
+      <c r="B7" t="s">
+        <v>225</v>
+      </c>
+      <c r="C7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" t="s">
+        <v>229</v>
+      </c>
+      <c r="B8" t="s">
+        <v>225</v>
+      </c>
+      <c r="C8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9" t="s">
+        <v>230</v>
+      </c>
+      <c r="B9" t="s">
+        <v>225</v>
+      </c>
+      <c r="C9" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" t="s">
+        <v>231</v>
+      </c>
+      <c r="B10" t="s">
+        <v>225</v>
+      </c>
+      <c r="C10" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11" t="s">
+        <v>232</v>
+      </c>
+      <c r="B11" t="s">
+        <v>225</v>
+      </c>
+      <c r="C11" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12" t="s">
+        <v>233</v>
+      </c>
+      <c r="B12" t="s">
+        <v>225</v>
+      </c>
+      <c r="C12" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13" t="s">
+        <v>234</v>
+      </c>
+      <c r="B13" t="s">
+        <v>225</v>
+      </c>
+      <c r="C13" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14" t="s">
+        <v>235</v>
+      </c>
+      <c r="B14" t="s">
+        <v>225</v>
+      </c>
+      <c r="C14" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15" t="s">
+        <v>236</v>
+      </c>
+      <c r="B15" t="s">
+        <v>225</v>
+      </c>
+      <c r="C15" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16" t="s">
+        <v>237</v>
+      </c>
+      <c r="B16" t="s">
+        <v>225</v>
+      </c>
+      <c r="C16" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
+      <c r="A17" t="s">
+        <v>238</v>
+      </c>
+      <c r="B17" t="s">
+        <v>225</v>
+      </c>
+      <c r="C17" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="A18" t="s">
+        <v>239</v>
+      </c>
+      <c r="B18" t="s">
+        <v>225</v>
+      </c>
+      <c r="C18" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="A19" t="s">
+        <v>240</v>
+      </c>
+      <c r="B19" t="s">
+        <v>225</v>
+      </c>
+      <c r="C19" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
+      <c r="A20" t="s">
+        <v>241</v>
+      </c>
+      <c r="B20" t="s">
+        <v>225</v>
+      </c>
+      <c r="C20" t="s">
+        <v>142</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:R20"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="39.990234" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="23.422852" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="50.559082" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="9.10" bestFit="true" style="0"/>
+    <col min="5" max="5" width="9.10" bestFit="true" style="0"/>
+    <col min="6" max="6" width="9.10" bestFit="true" style="0"/>
+    <col min="7" max="7" width="9.10" bestFit="true" style="0"/>
+    <col min="8" max="8" width="9.10" bestFit="true" style="0"/>
+    <col min="9" max="9" width="9.10" bestFit="true" style="0"/>
+    <col min="10" max="10" width="9.10" bestFit="true" style="0"/>
+    <col min="11" max="11" width="9.10" bestFit="true" style="0"/>
+    <col min="12" max="12" width="9.10" bestFit="true" style="0"/>
+    <col min="13" max="13" width="9.10" bestFit="true" style="0"/>
+    <col min="14" max="14" width="9.10" bestFit="true" style="0"/>
+    <col min="15" max="15" width="9.10" bestFit="true" style="0"/>
+    <col min="16" max="16" width="9.10" bestFit="true" style="0"/>
+    <col min="17" max="17" width="9.10" bestFit="true" style="0"/>
+    <col min="18" max="18" width="9.10" bestFit="true" style="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18">
+      <c r="A1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" t="s">
+        <v>224</v>
+      </c>
+      <c r="B4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" t="s">
+        <v>226</v>
+      </c>
+      <c r="B5" t="s">
+        <v>243</v>
+      </c>
+      <c r="C5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" t="s">
+        <v>227</v>
+      </c>
+      <c r="B6" t="s">
+        <v>243</v>
+      </c>
+      <c r="C6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" t="s">
+        <v>228</v>
+      </c>
+      <c r="B7" t="s">
+        <v>243</v>
+      </c>
+      <c r="C7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" t="s">
+        <v>229</v>
+      </c>
+      <c r="B8" t="s">
+        <v>243</v>
+      </c>
+      <c r="C8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9" t="s">
+        <v>230</v>
+      </c>
+      <c r="B9" t="s">
+        <v>243</v>
+      </c>
+      <c r="C9" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" t="s">
+        <v>231</v>
+      </c>
+      <c r="B10" t="s">
+        <v>243</v>
+      </c>
+      <c r="C10" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11" t="s">
+        <v>232</v>
+      </c>
+      <c r="B11" t="s">
+        <v>243</v>
+      </c>
+      <c r="C11" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12" t="s">
+        <v>233</v>
+      </c>
+      <c r="B12" t="s">
+        <v>243</v>
+      </c>
+      <c r="C12" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13" t="s">
+        <v>234</v>
+      </c>
+      <c r="B13" t="s">
+        <v>243</v>
+      </c>
+      <c r="C13" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14" t="s">
+        <v>235</v>
+      </c>
+      <c r="B14" t="s">
+        <v>243</v>
+      </c>
+      <c r="C14" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15" t="s">
+        <v>236</v>
+      </c>
+      <c r="B15" t="s">
+        <v>243</v>
+      </c>
+      <c r="C15" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16" t="s">
+        <v>237</v>
+      </c>
+      <c r="B16" t="s">
+        <v>243</v>
+      </c>
+      <c r="C16" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
+      <c r="A17" t="s">
+        <v>238</v>
+      </c>
+      <c r="B17" t="s">
+        <v>243</v>
+      </c>
+      <c r="C17" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="A18" t="s">
+        <v>239</v>
+      </c>
+      <c r="B18" t="s">
+        <v>243</v>
+      </c>
+      <c r="C18" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="A19" t="s">
+        <v>240</v>
+      </c>
+      <c r="B19" t="s">
+        <v>243</v>
+      </c>
+      <c r="C19" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
+      <c r="A20" t="s">
+        <v>244</v>
+      </c>
+      <c r="B20" t="s">
+        <v>243</v>
+      </c>
+      <c r="C20" t="s">
+        <v>142</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:R20"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="41.132813" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="24.708252" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="50.559082" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="9.10" bestFit="true" style="0"/>
+    <col min="5" max="5" width="9.10" bestFit="true" style="0"/>
+    <col min="6" max="6" width="9.10" bestFit="true" style="0"/>
+    <col min="7" max="7" width="9.10" bestFit="true" style="0"/>
+    <col min="8" max="8" width="9.10" bestFit="true" style="0"/>
+    <col min="9" max="9" width="9.10" bestFit="true" style="0"/>
+    <col min="10" max="10" width="9.10" bestFit="true" style="0"/>
+    <col min="11" max="11" width="9.10" bestFit="true" style="0"/>
+    <col min="12" max="12" width="9.10" bestFit="true" style="0"/>
+    <col min="13" max="13" width="9.10" bestFit="true" style="0"/>
+    <col min="14" max="14" width="9.10" bestFit="true" style="0"/>
+    <col min="15" max="15" width="9.10" bestFit="true" style="0"/>
+    <col min="16" max="16" width="9.10" bestFit="true" style="0"/>
+    <col min="17" max="17" width="9.10" bestFit="true" style="0"/>
+    <col min="18" max="18" width="9.10" bestFit="true" style="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18">
+      <c r="A1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B4" t="s">
+        <v>246</v>
+      </c>
+      <c r="C4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" t="s">
+        <v>183</v>
+      </c>
+      <c r="B5" t="s">
+        <v>246</v>
+      </c>
+      <c r="C5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" t="s">
+        <v>184</v>
+      </c>
+      <c r="B6" t="s">
+        <v>246</v>
+      </c>
+      <c r="C6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" t="s">
+        <v>185</v>
+      </c>
+      <c r="B7" t="s">
+        <v>246</v>
+      </c>
+      <c r="C7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" t="s">
+        <v>186</v>
+      </c>
+      <c r="B8" t="s">
+        <v>246</v>
+      </c>
+      <c r="C8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9" t="s">
+        <v>187</v>
+      </c>
+      <c r="B9" t="s">
+        <v>246</v>
+      </c>
+      <c r="C9" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" t="s">
+        <v>188</v>
+      </c>
+      <c r="B10" t="s">
+        <v>246</v>
+      </c>
+      <c r="C10" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11" t="s">
+        <v>189</v>
+      </c>
+      <c r="B11" t="s">
+        <v>246</v>
+      </c>
+      <c r="C11" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12" t="s">
+        <v>190</v>
+      </c>
+      <c r="B12" t="s">
+        <v>246</v>
+      </c>
+      <c r="C12" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13" t="s">
+        <v>191</v>
+      </c>
+      <c r="B13" t="s">
+        <v>246</v>
+      </c>
+      <c r="C13" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14" t="s">
+        <v>192</v>
+      </c>
+      <c r="B14" t="s">
+        <v>246</v>
+      </c>
+      <c r="C14" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15" t="s">
+        <v>193</v>
+      </c>
+      <c r="B15" t="s">
+        <v>246</v>
+      </c>
+      <c r="C15" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16" t="s">
+        <v>194</v>
+      </c>
+      <c r="B16" t="s">
+        <v>246</v>
+      </c>
+      <c r="C16" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
+      <c r="A17" t="s">
+        <v>195</v>
+      </c>
+      <c r="B17" t="s">
+        <v>246</v>
+      </c>
+      <c r="C17" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="A18" t="s">
+        <v>196</v>
+      </c>
+      <c r="B18" t="s">
+        <v>246</v>
+      </c>
+      <c r="C18" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="A19" t="s">
+        <v>197</v>
+      </c>
+      <c r="B19" t="s">
+        <v>246</v>
+      </c>
+      <c r="C19" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
+      <c r="A20" t="s">
+        <v>247</v>
+      </c>
+      <c r="B20" t="s">
+        <v>246</v>
+      </c>
+      <c r="C20" t="s">
+        <v>142</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:R20"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="41.132813" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="24.708252" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="50.559082" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="9.10" bestFit="true" style="0"/>
+    <col min="5" max="5" width="9.10" bestFit="true" style="0"/>
+    <col min="6" max="6" width="9.10" bestFit="true" style="0"/>
+    <col min="7" max="7" width="9.10" bestFit="true" style="0"/>
+    <col min="8" max="8" width="9.10" bestFit="true" style="0"/>
+    <col min="9" max="9" width="9.10" bestFit="true" style="0"/>
+    <col min="10" max="10" width="9.10" bestFit="true" style="0"/>
+    <col min="11" max="11" width="9.10" bestFit="true" style="0"/>
+    <col min="12" max="12" width="9.10" bestFit="true" style="0"/>
+    <col min="13" max="13" width="9.10" bestFit="true" style="0"/>
+    <col min="14" max="14" width="9.10" bestFit="true" style="0"/>
+    <col min="15" max="15" width="9.10" bestFit="true" style="0"/>
+    <col min="16" max="16" width="9.10" bestFit="true" style="0"/>
+    <col min="17" max="17" width="9.10" bestFit="true" style="0"/>
+    <col min="18" max="18" width="9.10" bestFit="true" style="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18">
+      <c r="A1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B4" t="s">
+        <v>249</v>
+      </c>
+      <c r="C4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" t="s">
+        <v>183</v>
+      </c>
+      <c r="B5" t="s">
+        <v>249</v>
+      </c>
+      <c r="C5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" t="s">
+        <v>184</v>
+      </c>
+      <c r="B6" t="s">
+        <v>249</v>
+      </c>
+      <c r="C6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" t="s">
+        <v>185</v>
+      </c>
+      <c r="B7" t="s">
+        <v>249</v>
+      </c>
+      <c r="C7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" t="s">
+        <v>186</v>
+      </c>
+      <c r="B8" t="s">
+        <v>249</v>
+      </c>
+      <c r="C8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9" t="s">
+        <v>187</v>
+      </c>
+      <c r="B9" t="s">
+        <v>249</v>
+      </c>
+      <c r="C9" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" t="s">
+        <v>188</v>
+      </c>
+      <c r="B10" t="s">
+        <v>249</v>
+      </c>
+      <c r="C10" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11" t="s">
+        <v>189</v>
+      </c>
+      <c r="B11" t="s">
+        <v>249</v>
+      </c>
+      <c r="C11" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12" t="s">
+        <v>190</v>
+      </c>
+      <c r="B12" t="s">
+        <v>249</v>
+      </c>
+      <c r="C12" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13" t="s">
+        <v>191</v>
+      </c>
+      <c r="B13" t="s">
+        <v>249</v>
+      </c>
+      <c r="C13" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14" t="s">
+        <v>192</v>
+      </c>
+      <c r="B14" t="s">
+        <v>249</v>
+      </c>
+      <c r="C14" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15" t="s">
+        <v>193</v>
+      </c>
+      <c r="B15" t="s">
+        <v>249</v>
+      </c>
+      <c r="C15" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16" t="s">
+        <v>194</v>
+      </c>
+      <c r="B16" t="s">
+        <v>249</v>
+      </c>
+      <c r="C16" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
+      <c r="A17" t="s">
+        <v>195</v>
+      </c>
+      <c r="B17" t="s">
+        <v>249</v>
+      </c>
+      <c r="C17" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="A18" t="s">
+        <v>196</v>
+      </c>
+      <c r="B18" t="s">
+        <v>249</v>
+      </c>
+      <c r="C18" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="A19" t="s">
+        <v>197</v>
+      </c>
+      <c r="B19" t="s">
+        <v>249</v>
+      </c>
+      <c r="C19" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
+      <c r="A20" t="s">
+        <v>250</v>
+      </c>
+      <c r="B20" t="s">
+        <v>249</v>
+      </c>
+      <c r="C20" t="s">
+        <v>142</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:Q19"/>
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="35.2771" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="18.709717" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="57.700195" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="9.10" bestFit="true" style="0"/>
+    <col min="5" max="5" width="9.10" bestFit="true" style="0"/>
+    <col min="6" max="6" width="9.10" bestFit="true" style="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:U23"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -2043,198 +4570,1890 @@
     <col min="15" max="15" width="9.10" bestFit="true" style="0"/>
     <col min="16" max="16" width="9.10" bestFit="true" style="0"/>
     <col min="17" max="17" width="9.10" bestFit="true" style="0"/>
+    <col min="18" max="18" width="9.10" bestFit="true" style="0"/>
+    <col min="19" max="19" width="9.10" bestFit="true" style="0"/>
+    <col min="20" max="20" width="9.10" bestFit="true" style="0"/>
+    <col min="21" max="21" width="9.10" bestFit="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:21">
       <c r="A1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="C4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
+      <c r="A5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
+      <c r="A6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
+      <c r="A7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
+      <c r="A8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
+      <c r="A9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
+      <c r="A10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
+      <c r="A11" t="s">
+        <v>78</v>
+      </c>
+      <c r="B11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
+      <c r="A12" t="s">
+        <v>80</v>
+      </c>
+      <c r="B12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
+      <c r="A13" t="s">
+        <v>81</v>
+      </c>
+      <c r="B13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
+      <c r="A14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
+      <c r="A15" t="s">
+        <v>85</v>
+      </c>
+      <c r="B15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
+      <c r="A16" t="s">
+        <v>86</v>
+      </c>
+      <c r="B16" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21">
+      <c r="A17" t="s">
+        <v>88</v>
+      </c>
+      <c r="B17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21">
+      <c r="A18" t="s">
+        <v>90</v>
+      </c>
+      <c r="B18" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21">
+      <c r="A19" t="s">
+        <v>91</v>
+      </c>
+      <c r="B19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21">
+      <c r="A20" t="s">
+        <v>93</v>
+      </c>
+      <c r="B20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21">
+      <c r="A21" t="s">
+        <v>95</v>
+      </c>
+      <c r="B21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21">
+      <c r="A22" t="s">
+        <v>97</v>
+      </c>
+      <c r="B22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21">
+      <c r="A23" t="s">
+        <v>99</v>
+      </c>
+      <c r="B23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" t="s">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:M15"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="38.847656" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="22.280273" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="56.557617" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="9.10" bestFit="true" style="0"/>
+    <col min="5" max="5" width="9.10" bestFit="true" style="0"/>
+    <col min="6" max="6" width="9.10" bestFit="true" style="0"/>
+    <col min="7" max="7" width="9.10" bestFit="true" style="0"/>
+    <col min="8" max="8" width="9.10" bestFit="true" style="0"/>
+    <col min="9" max="9" width="9.10" bestFit="true" style="0"/>
+    <col min="10" max="10" width="9.10" bestFit="true" style="0"/>
+    <col min="11" max="11" width="9.10" bestFit="true" style="0"/>
+    <col min="12" max="12" width="9.10" bestFit="true" style="0"/>
+    <col min="13" max="13" width="9.10" bestFit="true" style="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" t="s">
+        <v>112</v>
+      </c>
+      <c r="B10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" t="s">
+        <v>113</v>
+      </c>
+      <c r="B11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" t="s">
+        <v>114</v>
+      </c>
+      <c r="B12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" t="s">
+        <v>115</v>
+      </c>
+      <c r="B13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C13" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" t="s">
+        <v>117</v>
+      </c>
+      <c r="B14" t="s">
+        <v>103</v>
+      </c>
+      <c r="C14" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" t="s">
+        <v>118</v>
+      </c>
+      <c r="B15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:M15"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="38.847656" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="22.280273" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="56.557617" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="9.10" bestFit="true" style="0"/>
+    <col min="5" max="5" width="9.10" bestFit="true" style="0"/>
+    <col min="6" max="6" width="9.10" bestFit="true" style="0"/>
+    <col min="7" max="7" width="9.10" bestFit="true" style="0"/>
+    <col min="8" max="8" width="9.10" bestFit="true" style="0"/>
+    <col min="9" max="9" width="9.10" bestFit="true" style="0"/>
+    <col min="10" max="10" width="9.10" bestFit="true" style="0"/>
+    <col min="11" max="11" width="9.10" bestFit="true" style="0"/>
+    <col min="12" max="12" width="9.10" bestFit="true" style="0"/>
+    <col min="13" max="13" width="9.10" bestFit="true" style="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" t="s">
         <v>49</v>
       </c>
+      <c r="C3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" t="s">
+        <v>124</v>
+      </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>122</v>
       </c>
       <c r="C5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" t="s">
+        <v>127</v>
+      </c>
+      <c r="B7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" t="s">
+        <v>129</v>
+      </c>
+      <c r="B8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" t="s">
+        <v>130</v>
+      </c>
+      <c r="B9" t="s">
+        <v>122</v>
+      </c>
+      <c r="C9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" t="s">
+        <v>131</v>
+      </c>
+      <c r="B10" t="s">
+        <v>122</v>
+      </c>
+      <c r="C10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" t="s">
+        <v>132</v>
+      </c>
+      <c r="B11" t="s">
+        <v>122</v>
+      </c>
+      <c r="C11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" t="s">
+        <v>133</v>
+      </c>
+      <c r="B12" t="s">
+        <v>122</v>
+      </c>
+      <c r="C12" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" t="s">
+        <v>134</v>
+      </c>
+      <c r="B13" t="s">
+        <v>122</v>
+      </c>
+      <c r="C13" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" t="s">
+        <v>136</v>
+      </c>
+      <c r="B14" t="s">
+        <v>122</v>
+      </c>
+      <c r="C14" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" t="s">
+        <v>137</v>
+      </c>
+      <c r="B15" t="s">
+        <v>122</v>
+      </c>
+      <c r="C15" t="s">
+        <v>138</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:AA29"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="36.419678" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="19.995117" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="50.559082" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="9.10" bestFit="true" style="0"/>
+    <col min="5" max="5" width="9.10" bestFit="true" style="0"/>
+    <col min="6" max="6" width="9.10" bestFit="true" style="0"/>
+    <col min="7" max="7" width="9.10" bestFit="true" style="0"/>
+    <col min="8" max="8" width="9.10" bestFit="true" style="0"/>
+    <col min="9" max="9" width="9.10" bestFit="true" style="0"/>
+    <col min="10" max="10" width="9.10" bestFit="true" style="0"/>
+    <col min="11" max="11" width="9.10" bestFit="true" style="0"/>
+    <col min="12" max="12" width="9.10" bestFit="true" style="0"/>
+    <col min="13" max="13" width="9.10" bestFit="true" style="0"/>
+    <col min="14" max="14" width="9.10" bestFit="true" style="0"/>
+    <col min="15" max="15" width="9.10" bestFit="true" style="0"/>
+    <col min="16" max="16" width="9.10" bestFit="true" style="0"/>
+    <col min="17" max="17" width="9.10" bestFit="true" style="0"/>
+    <col min="18" max="18" width="9.10" bestFit="true" style="0"/>
+    <col min="19" max="19" width="9.10" bestFit="true" style="0"/>
+    <col min="20" max="20" width="9.10" bestFit="true" style="0"/>
+    <col min="21" max="21" width="9.10" bestFit="true" style="0"/>
+    <col min="22" max="22" width="9.10" bestFit="true" style="0"/>
+    <col min="23" max="23" width="9.10" bestFit="true" style="0"/>
+    <col min="24" max="24" width="9.10" bestFit="true" style="0"/>
+    <col min="25" max="25" width="9.10" bestFit="true" style="0"/>
+    <col min="26" max="26" width="9.10" bestFit="true" style="0"/>
+    <col min="27" max="27" width="9.10" bestFit="true" style="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27">
+      <c r="A1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27">
+      <c r="A3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="4" spans="1:27">
+      <c r="A4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27">
+      <c r="A5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>144</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>141</v>
       </c>
       <c r="C6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27">
       <c r="A7" t="s">
-        <v>53</v>
+        <v>145</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>141</v>
       </c>
       <c r="C7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27">
       <c r="A8" t="s">
-        <v>55</v>
+        <v>146</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>141</v>
       </c>
       <c r="C8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27">
       <c r="A9" t="s">
-        <v>57</v>
+        <v>147</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>141</v>
       </c>
       <c r="C9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27">
       <c r="A10" t="s">
-        <v>59</v>
+        <v>148</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>141</v>
       </c>
       <c r="C10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27">
       <c r="A11" t="s">
-        <v>61</v>
+        <v>149</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>141</v>
       </c>
       <c r="C11" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27">
       <c r="A12" t="s">
-        <v>63</v>
+        <v>150</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>141</v>
       </c>
       <c r="C12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27">
       <c r="A13" t="s">
-        <v>64</v>
+        <v>151</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>141</v>
       </c>
       <c r="C13" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27">
       <c r="A14" t="s">
-        <v>66</v>
+        <v>152</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>141</v>
       </c>
       <c r="C14" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27">
       <c r="A15" t="s">
-        <v>68</v>
+        <v>153</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>141</v>
       </c>
       <c r="C15" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27">
       <c r="A16" t="s">
-        <v>69</v>
+        <v>154</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>141</v>
       </c>
       <c r="C16" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27">
       <c r="A17" t="s">
-        <v>71</v>
+        <v>155</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>141</v>
       </c>
       <c r="C17" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27">
       <c r="A18" t="s">
-        <v>73</v>
+        <v>156</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>141</v>
       </c>
       <c r="C18" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27">
       <c r="A19" t="s">
-        <v>74</v>
+        <v>157</v>
       </c>
       <c r="B19" t="s">
-        <v>47</v>
+        <v>141</v>
       </c>
       <c r="C19" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27">
+      <c r="A20" t="s">
+        <v>158</v>
+      </c>
+      <c r="B20" t="s">
+        <v>141</v>
+      </c>
+      <c r="C20" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27">
+      <c r="A21" t="s">
+        <v>159</v>
+      </c>
+      <c r="B21" t="s">
+        <v>141</v>
+      </c>
+      <c r="C21" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27">
+      <c r="A22" t="s">
+        <v>161</v>
+      </c>
+      <c r="B22" t="s">
+        <v>141</v>
+      </c>
+      <c r="C22" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27">
+      <c r="A23" t="s">
+        <v>163</v>
+      </c>
+      <c r="B23" t="s">
+        <v>141</v>
+      </c>
+      <c r="C23" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27">
+      <c r="A24" t="s">
+        <v>164</v>
+      </c>
+      <c r="B24" t="s">
+        <v>141</v>
+      </c>
+      <c r="C24" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27">
+      <c r="A25" t="s">
+        <v>165</v>
+      </c>
+      <c r="B25" t="s">
+        <v>141</v>
+      </c>
+      <c r="C25" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27">
+      <c r="A26" t="s">
+        <v>166</v>
+      </c>
+      <c r="B26" t="s">
+        <v>141</v>
+      </c>
+      <c r="C26" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27">
+      <c r="A27" t="s">
+        <v>167</v>
+      </c>
+      <c r="B27" t="s">
+        <v>141</v>
+      </c>
+      <c r="C27" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27">
+      <c r="A28" t="s">
+        <v>168</v>
+      </c>
+      <c r="B28" t="s">
+        <v>141</v>
+      </c>
+      <c r="C28" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27">
+      <c r="A29" t="s">
+        <v>169</v>
+      </c>
+      <c r="B29" t="s">
+        <v>141</v>
+      </c>
+      <c r="C29" t="s">
+        <v>170</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:AA29"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="39.990234" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="23.422852" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="96.690674" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="9.10" bestFit="true" style="0"/>
+    <col min="5" max="5" width="9.10" bestFit="true" style="0"/>
+    <col min="6" max="6" width="9.10" bestFit="true" style="0"/>
+    <col min="7" max="7" width="9.10" bestFit="true" style="0"/>
+    <col min="8" max="8" width="9.10" bestFit="true" style="0"/>
+    <col min="9" max="9" width="9.10" bestFit="true" style="0"/>
+    <col min="10" max="10" width="9.10" bestFit="true" style="0"/>
+    <col min="11" max="11" width="9.10" bestFit="true" style="0"/>
+    <col min="12" max="12" width="9.10" bestFit="true" style="0"/>
+    <col min="13" max="13" width="9.10" bestFit="true" style="0"/>
+    <col min="14" max="14" width="9.10" bestFit="true" style="0"/>
+    <col min="15" max="15" width="9.10" bestFit="true" style="0"/>
+    <col min="16" max="16" width="9.10" bestFit="true" style="0"/>
+    <col min="17" max="17" width="9.10" bestFit="true" style="0"/>
+    <col min="18" max="18" width="9.10" bestFit="true" style="0"/>
+    <col min="19" max="19" width="9.10" bestFit="true" style="0"/>
+    <col min="20" max="20" width="9.10" bestFit="true" style="0"/>
+    <col min="21" max="21" width="9.10" bestFit="true" style="0"/>
+    <col min="22" max="22" width="9.10" bestFit="true" style="0"/>
+    <col min="23" max="23" width="9.10" bestFit="true" style="0"/>
+    <col min="24" max="24" width="9.10" bestFit="true" style="0"/>
+    <col min="25" max="25" width="9.10" bestFit="true" style="0"/>
+    <col min="26" max="26" width="9.10" bestFit="true" style="0"/>
+    <col min="27" max="27" width="9.10" bestFit="true" style="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27">
+      <c r="A1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27">
+      <c r="A3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27">
+      <c r="A4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27">
+      <c r="A5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27">
+      <c r="A6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B6" t="s">
+        <v>172</v>
+      </c>
+      <c r="C6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27">
+      <c r="A7" t="s">
+        <v>145</v>
+      </c>
+      <c r="B7" t="s">
+        <v>172</v>
+      </c>
+      <c r="C7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27">
+      <c r="A8" t="s">
+        <v>146</v>
+      </c>
+      <c r="B8" t="s">
+        <v>172</v>
+      </c>
+      <c r="C8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27">
+      <c r="A9" t="s">
+        <v>147</v>
+      </c>
+      <c r="B9" t="s">
+        <v>172</v>
+      </c>
+      <c r="C9" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27">
+      <c r="A10" t="s">
+        <v>148</v>
+      </c>
+      <c r="B10" t="s">
+        <v>172</v>
+      </c>
+      <c r="C10" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27">
+      <c r="A11" t="s">
+        <v>149</v>
+      </c>
+      <c r="B11" t="s">
+        <v>172</v>
+      </c>
+      <c r="C11" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27">
+      <c r="A12" t="s">
+        <v>150</v>
+      </c>
+      <c r="B12" t="s">
+        <v>172</v>
+      </c>
+      <c r="C12" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27">
+      <c r="A13" t="s">
+        <v>151</v>
+      </c>
+      <c r="B13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C13" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27">
+      <c r="A14" t="s">
+        <v>152</v>
+      </c>
+      <c r="B14" t="s">
+        <v>172</v>
+      </c>
+      <c r="C14" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27">
+      <c r="A15" t="s">
+        <v>153</v>
+      </c>
+      <c r="B15" t="s">
+        <v>172</v>
+      </c>
+      <c r="C15" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27">
+      <c r="A16" t="s">
+        <v>154</v>
+      </c>
+      <c r="B16" t="s">
+        <v>172</v>
+      </c>
+      <c r="C16" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27">
+      <c r="A17" t="s">
+        <v>155</v>
+      </c>
+      <c r="B17" t="s">
+        <v>172</v>
+      </c>
+      <c r="C17" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27">
+      <c r="A18" t="s">
+        <v>156</v>
+      </c>
+      <c r="B18" t="s">
+        <v>172</v>
+      </c>
+      <c r="C18" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27">
+      <c r="A19" t="s">
+        <v>157</v>
+      </c>
+      <c r="B19" t="s">
+        <v>172</v>
+      </c>
+      <c r="C19" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27">
+      <c r="A20" t="s">
+        <v>173</v>
+      </c>
+      <c r="B20" t="s">
+        <v>172</v>
+      </c>
+      <c r="C20" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27">
+      <c r="A21" t="s">
+        <v>159</v>
+      </c>
+      <c r="B21" t="s">
+        <v>172</v>
+      </c>
+      <c r="C21" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27">
+      <c r="A22" t="s">
+        <v>161</v>
+      </c>
+      <c r="B22" t="s">
+        <v>172</v>
+      </c>
+      <c r="C22" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27">
+      <c r="A23" t="s">
+        <v>176</v>
+      </c>
+      <c r="B23" t="s">
+        <v>172</v>
+      </c>
+      <c r="C23" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27">
+      <c r="A24" t="s">
+        <v>164</v>
+      </c>
+      <c r="B24" t="s">
+        <v>172</v>
+      </c>
+      <c r="C24" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27">
+      <c r="A25" t="s">
+        <v>165</v>
+      </c>
+      <c r="B25" t="s">
+        <v>172</v>
+      </c>
+      <c r="C25" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27">
+      <c r="A26" t="s">
+        <v>166</v>
+      </c>
+      <c r="B26" t="s">
+        <v>172</v>
+      </c>
+      <c r="C26" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27">
+      <c r="A27" t="s">
+        <v>167</v>
+      </c>
+      <c r="B27" t="s">
+        <v>172</v>
+      </c>
+      <c r="C27" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27">
+      <c r="A28" t="s">
+        <v>177</v>
+      </c>
+      <c r="B28" t="s">
+        <v>172</v>
+      </c>
+      <c r="C28" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27">
+      <c r="A29" t="s">
+        <v>178</v>
+      </c>
+      <c r="B29" t="s">
+        <v>172</v>
+      </c>
+      <c r="C29" t="s">
+        <v>179</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:AA29"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="41.132813" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="24.708252" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="81.265869" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="9.10" bestFit="true" style="0"/>
+    <col min="5" max="5" width="9.10" bestFit="true" style="0"/>
+    <col min="6" max="6" width="9.10" bestFit="true" style="0"/>
+    <col min="7" max="7" width="9.10" bestFit="true" style="0"/>
+    <col min="8" max="8" width="9.10" bestFit="true" style="0"/>
+    <col min="9" max="9" width="9.10" bestFit="true" style="0"/>
+    <col min="10" max="10" width="9.10" bestFit="true" style="0"/>
+    <col min="11" max="11" width="9.10" bestFit="true" style="0"/>
+    <col min="12" max="12" width="9.10" bestFit="true" style="0"/>
+    <col min="13" max="13" width="9.10" bestFit="true" style="0"/>
+    <col min="14" max="14" width="9.10" bestFit="true" style="0"/>
+    <col min="15" max="15" width="9.10" bestFit="true" style="0"/>
+    <col min="16" max="16" width="9.10" bestFit="true" style="0"/>
+    <col min="17" max="17" width="9.10" bestFit="true" style="0"/>
+    <col min="18" max="18" width="9.10" bestFit="true" style="0"/>
+    <col min="19" max="19" width="9.10" bestFit="true" style="0"/>
+    <col min="20" max="20" width="9.10" bestFit="true" style="0"/>
+    <col min="21" max="21" width="9.10" bestFit="true" style="0"/>
+    <col min="22" max="22" width="9.10" bestFit="true" style="0"/>
+    <col min="23" max="23" width="9.10" bestFit="true" style="0"/>
+    <col min="24" max="24" width="9.10" bestFit="true" style="0"/>
+    <col min="25" max="25" width="9.10" bestFit="true" style="0"/>
+    <col min="26" max="26" width="9.10" bestFit="true" style="0"/>
+    <col min="27" max="27" width="9.10" bestFit="true" style="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27">
+      <c r="A1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27">
+      <c r="A3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27">
+      <c r="A4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27">
+      <c r="A5" t="s">
+        <v>183</v>
+      </c>
+      <c r="B5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27">
+      <c r="A6" t="s">
+        <v>184</v>
+      </c>
+      <c r="B6" t="s">
+        <v>182</v>
+      </c>
+      <c r="C6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27">
+      <c r="A7" t="s">
+        <v>185</v>
+      </c>
+      <c r="B7" t="s">
+        <v>182</v>
+      </c>
+      <c r="C7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27">
+      <c r="A8" t="s">
+        <v>186</v>
+      </c>
+      <c r="B8" t="s">
+        <v>182</v>
+      </c>
+      <c r="C8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27">
+      <c r="A9" t="s">
+        <v>187</v>
+      </c>
+      <c r="B9" t="s">
+        <v>182</v>
+      </c>
+      <c r="C9" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27">
+      <c r="A10" t="s">
+        <v>188</v>
+      </c>
+      <c r="B10" t="s">
+        <v>182</v>
+      </c>
+      <c r="C10" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27">
+      <c r="A11" t="s">
+        <v>189</v>
+      </c>
+      <c r="B11" t="s">
+        <v>182</v>
+      </c>
+      <c r="C11" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27">
+      <c r="A12" t="s">
+        <v>190</v>
+      </c>
+      <c r="B12" t="s">
+        <v>182</v>
+      </c>
+      <c r="C12" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27">
+      <c r="A13" t="s">
+        <v>191</v>
+      </c>
+      <c r="B13" t="s">
+        <v>182</v>
+      </c>
+      <c r="C13" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27">
+      <c r="A14" t="s">
+        <v>192</v>
+      </c>
+      <c r="B14" t="s">
+        <v>182</v>
+      </c>
+      <c r="C14" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27">
+      <c r="A15" t="s">
+        <v>193</v>
+      </c>
+      <c r="B15" t="s">
+        <v>182</v>
+      </c>
+      <c r="C15" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27">
+      <c r="A16" t="s">
+        <v>194</v>
+      </c>
+      <c r="B16" t="s">
+        <v>182</v>
+      </c>
+      <c r="C16" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27">
+      <c r="A17" t="s">
+        <v>195</v>
+      </c>
+      <c r="B17" t="s">
+        <v>182</v>
+      </c>
+      <c r="C17" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27">
+      <c r="A18" t="s">
+        <v>196</v>
+      </c>
+      <c r="B18" t="s">
+        <v>182</v>
+      </c>
+      <c r="C18" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27">
+      <c r="A19" t="s">
+        <v>197</v>
+      </c>
+      <c r="B19" t="s">
+        <v>182</v>
+      </c>
+      <c r="C19" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27">
+      <c r="A20" t="s">
+        <v>198</v>
+      </c>
+      <c r="B20" t="s">
+        <v>182</v>
+      </c>
+      <c r="C20" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27">
+      <c r="A21" t="s">
+        <v>199</v>
+      </c>
+      <c r="B21" t="s">
+        <v>182</v>
+      </c>
+      <c r="C21" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27">
+      <c r="A22" t="s">
+        <v>201</v>
+      </c>
+      <c r="B22" t="s">
+        <v>182</v>
+      </c>
+      <c r="C22" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27">
+      <c r="A23" t="s">
+        <v>163</v>
+      </c>
+      <c r="B23" t="s">
+        <v>182</v>
+      </c>
+      <c r="C23" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27">
+      <c r="A24" t="s">
+        <v>203</v>
+      </c>
+      <c r="B24" t="s">
+        <v>182</v>
+      </c>
+      <c r="C24" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27">
+      <c r="A25" t="s">
+        <v>204</v>
+      </c>
+      <c r="B25" t="s">
+        <v>182</v>
+      </c>
+      <c r="C25" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27">
+      <c r="A26" t="s">
+        <v>205</v>
+      </c>
+      <c r="B26" t="s">
+        <v>182</v>
+      </c>
+      <c r="C26" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27">
+      <c r="A27" t="s">
+        <v>206</v>
+      </c>
+      <c r="B27" t="s">
+        <v>182</v>
+      </c>
+      <c r="C27" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27">
+      <c r="A28" t="s">
+        <v>207</v>
+      </c>
+      <c r="B28" t="s">
+        <v>182</v>
+      </c>
+      <c r="C28" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27">
+      <c r="A29" t="s">
+        <v>169</v>
+      </c>
+      <c r="B29" t="s">
+        <v>182</v>
+      </c>
+      <c r="C29" t="s">
+        <v>208</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:L14"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="38.847656" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="22.280273" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="51.844482" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="9.10" bestFit="true" style="0"/>
+    <col min="5" max="5" width="9.10" bestFit="true" style="0"/>
+    <col min="6" max="6" width="9.10" bestFit="true" style="0"/>
+    <col min="7" max="7" width="9.10" bestFit="true" style="0"/>
+    <col min="8" max="8" width="9.10" bestFit="true" style="0"/>
+    <col min="9" max="9" width="9.10" bestFit="true" style="0"/>
+    <col min="10" max="10" width="9.10" bestFit="true" style="0"/>
+    <col min="11" max="11" width="9.10" bestFit="true" style="0"/>
+    <col min="12" max="12" width="9.10" bestFit="true" style="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>210</v>
+      </c>
+      <c r="B4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>213</v>
+      </c>
+      <c r="B5" t="s">
+        <v>211</v>
+      </c>
+      <c r="C5" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" t="s">
+        <v>214</v>
+      </c>
+      <c r="B6" t="s">
+        <v>211</v>
+      </c>
+      <c r="C6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B7" t="s">
+        <v>211</v>
+      </c>
+      <c r="C7" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" t="s">
+        <v>216</v>
+      </c>
+      <c r="B8" t="s">
+        <v>211</v>
+      </c>
+      <c r="C8" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" t="s">
+        <v>217</v>
+      </c>
+      <c r="B9" t="s">
+        <v>211</v>
+      </c>
+      <c r="C9" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" t="s">
+        <v>218</v>
+      </c>
+      <c r="B10" t="s">
+        <v>211</v>
+      </c>
+      <c r="C10" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" t="s">
+        <v>219</v>
+      </c>
+      <c r="B11" t="s">
+        <v>211</v>
+      </c>
+      <c r="C11" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" t="s">
+        <v>134</v>
+      </c>
+      <c r="B12" t="s">
+        <v>211</v>
+      </c>
+      <c r="C12" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" t="s">
+        <v>221</v>
+      </c>
+      <c r="B13" t="s">
+        <v>211</v>
+      </c>
+      <c r="C13" t="s">
         <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" t="s">
+        <v>137</v>
+      </c>
+      <c r="B14" t="s">
+        <v>211</v>
+      </c>
+      <c r="C14" t="s">
+        <v>222</v>
       </c>
     </row>
   </sheetData>
